--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.16206801479283</v>
+        <v>1.508394</v>
       </c>
       <c r="N2">
-        <v>1.16206801479283</v>
+        <v>4.525182</v>
       </c>
       <c r="O2">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="P2">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="Q2">
-        <v>218.6822368585558</v>
+        <v>307.383040293212</v>
       </c>
       <c r="R2">
-        <v>218.6822368585558</v>
+        <v>2766.447362638908</v>
       </c>
       <c r="S2">
-        <v>0.01428617154912221</v>
+        <v>0.01843351658850287</v>
       </c>
       <c r="T2">
-        <v>0.01428617154912221</v>
+        <v>0.01843351658850287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.7995253467656</v>
+        <v>8.961352</v>
       </c>
       <c r="N3">
-        <v>8.7995253467656</v>
+        <v>26.884056</v>
       </c>
       <c r="O3">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="P3">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="Q3">
-        <v>1655.927072794718</v>
+        <v>1826.159228223963</v>
       </c>
       <c r="R3">
-        <v>1655.927072794718</v>
+        <v>16435.43305401567</v>
       </c>
       <c r="S3">
-        <v>0.1081791487713857</v>
+        <v>0.1095133173079536</v>
       </c>
       <c r="T3">
-        <v>0.1081791487713857</v>
+        <v>0.1095133173079536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H4">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.9853126299901</v>
+        <v>44.08824833333333</v>
       </c>
       <c r="N4">
-        <v>42.9853126299901</v>
+        <v>132.264745</v>
       </c>
       <c r="O4">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122387</v>
       </c>
       <c r="P4">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122386</v>
       </c>
       <c r="Q4">
-        <v>8089.134369356506</v>
+        <v>8984.376637604058</v>
       </c>
       <c r="R4">
-        <v>8089.134369356506</v>
+        <v>80859.38973843654</v>
       </c>
       <c r="S4">
-        <v>0.5284506091789878</v>
+        <v>0.5387859253023639</v>
       </c>
       <c r="T4">
-        <v>0.5284506091789878</v>
+        <v>0.5387859253023639</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.16206801479283</v>
+        <v>1.508394</v>
       </c>
       <c r="N5">
-        <v>1.16206801479283</v>
+        <v>4.525182</v>
       </c>
       <c r="O5">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="P5">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="Q5">
-        <v>72.97385911160768</v>
+        <v>95.240886106864</v>
       </c>
       <c r="R5">
-        <v>72.97385911160768</v>
+        <v>857.1679749617759</v>
       </c>
       <c r="S5">
-        <v>0.004767269097143013</v>
+        <v>0.005711520233126407</v>
       </c>
       <c r="T5">
-        <v>0.004767269097143013</v>
+        <v>0.005711520233126407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.7995253467656</v>
+        <v>8.961352</v>
       </c>
       <c r="N6">
-        <v>8.7995253467656</v>
+        <v>26.884056</v>
       </c>
       <c r="O6">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="P6">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="Q6">
-        <v>552.5798100710754</v>
+        <v>565.8250465034453</v>
       </c>
       <c r="R6">
-        <v>552.5798100710754</v>
+        <v>5092.425418531007</v>
       </c>
       <c r="S6">
-        <v>0.03609918242405198</v>
+        <v>0.03393207826613457</v>
       </c>
       <c r="T6">
-        <v>0.03609918242405198</v>
+        <v>0.03393207826613457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.9853126299901</v>
+        <v>44.08824833333333</v>
       </c>
       <c r="N7">
-        <v>42.9853126299901</v>
+        <v>132.264745</v>
       </c>
       <c r="O7">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122387</v>
       </c>
       <c r="P7">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122386</v>
       </c>
       <c r="Q7">
-        <v>2699.329219803479</v>
+        <v>2783.757982441018</v>
       </c>
       <c r="R7">
-        <v>2699.329219803479</v>
+        <v>25053.82184196916</v>
       </c>
       <c r="S7">
-        <v>0.176342993631501</v>
+        <v>0.1669397534058972</v>
       </c>
       <c r="T7">
-        <v>0.176342993631501</v>
+        <v>0.1669397534058972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H8">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.16206801479283</v>
+        <v>1.508394</v>
       </c>
       <c r="N8">
-        <v>1.16206801479283</v>
+        <v>4.525182</v>
       </c>
       <c r="O8">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="P8">
-        <v>0.02194779832797636</v>
+        <v>0.0276475339394655</v>
       </c>
       <c r="Q8">
-        <v>44.30470472295465</v>
+        <v>58.404928193148</v>
       </c>
       <c r="R8">
-        <v>44.30470472295465</v>
+        <v>525.644353738332</v>
       </c>
       <c r="S8">
-        <v>0.002894357681711135</v>
+        <v>0.003502497117836228</v>
       </c>
       <c r="T8">
-        <v>0.002894357681711135</v>
+        <v>0.003502497117836229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H9">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.7995253467656</v>
+        <v>8.961352</v>
       </c>
       <c r="N9">
-        <v>8.7995253467656</v>
+        <v>26.884056</v>
       </c>
       <c r="O9">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="P9">
-        <v>0.166195270185763</v>
+        <v>0.1642536920482958</v>
       </c>
       <c r="Q9">
-        <v>335.4884285840258</v>
+        <v>346.983029681584</v>
       </c>
       <c r="R9">
-        <v>335.4884285840258</v>
+        <v>3122.847267134256</v>
       </c>
       <c r="S9">
-        <v>0.02191693899032527</v>
+        <v>0.02080829647420761</v>
       </c>
       <c r="T9">
-        <v>0.02191693899032527</v>
+        <v>0.02080829647420762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H10">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.9853126299901</v>
+        <v>44.08824833333333</v>
       </c>
       <c r="N10">
-        <v>42.9853126299901</v>
+        <v>132.264745</v>
       </c>
       <c r="O10">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122387</v>
       </c>
       <c r="P10">
-        <v>0.8118569314862607</v>
+        <v>0.8080987740122386</v>
       </c>
       <c r="Q10">
-        <v>1638.846917092993</v>
+        <v>1707.094418348263</v>
       </c>
       <c r="R10">
-        <v>1638.846917092993</v>
+        <v>15363.84976513437</v>
       </c>
       <c r="S10">
-        <v>0.1070633286757719</v>
+        <v>0.1023730953039775</v>
       </c>
       <c r="T10">
-        <v>0.1070633286757719</v>
+        <v>0.1023730953039776</v>
       </c>
     </row>
   </sheetData>
